--- a/esempio_input/CLASSE_5A.xlsx
+++ b/esempio_input/CLASSE_5A.xlsx
@@ -402,7 +402,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
